--- a/gsheet.xlsx
+++ b/gsheet.xlsx
@@ -621,7 +621,7 @@
     <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
